--- a/doc/ETF01.xlsx
+++ b/doc/ETF01.xlsx
@@ -783,16 +783,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="J139" sqref="J139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f>"sz"&amp;F1</f>
-        <v>sz159001</v>
+      <c r="A1">
+        <v>159001</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -808,9 +807,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f t="shared" ref="A2:A54" si="0">"sz"&amp;F2</f>
-        <v>sz159003</v>
+      <c r="A2">
+        <v>159003</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -826,9 +824,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159005</v>
+      <c r="A3">
+        <v>159005</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -844,9 +841,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159901</v>
+      <c r="A4">
+        <v>159901</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -862,9 +858,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159902</v>
+      <c r="A5">
+        <v>159902</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -880,9 +875,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159903</v>
+      <c r="A6">
+        <v>159903</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -898,9 +892,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159905</v>
+      <c r="A7">
+        <v>159905</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -916,9 +909,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159906</v>
+      <c r="A8">
+        <v>159906</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -934,9 +926,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159907</v>
+      <c r="A9">
+        <v>159907</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -952,9 +943,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159908</v>
+      <c r="A10">
+        <v>159908</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -970,9 +960,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159909</v>
+      <c r="A11">
+        <v>159909</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -988,9 +977,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159910</v>
+      <c r="A12">
+        <v>159910</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1006,9 +994,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159911</v>
+      <c r="A13">
+        <v>159911</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1024,9 +1011,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159912</v>
+      <c r="A14">
+        <v>159912</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1042,9 +1028,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159913</v>
+      <c r="A15">
+        <v>159913</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1060,9 +1045,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159915</v>
+      <c r="A16">
+        <v>159915</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1078,9 +1062,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159916</v>
+      <c r="A17">
+        <v>159916</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1096,9 +1079,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159918</v>
+      <c r="A18">
+        <v>159918</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1114,9 +1096,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159919</v>
+      <c r="A19">
+        <v>159919</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1132,9 +1113,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159920</v>
+      <c r="A20">
+        <v>159920</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1150,9 +1130,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159922</v>
+      <c r="A21">
+        <v>159922</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1168,9 +1147,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159923</v>
+      <c r="A22">
+        <v>159923</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1186,9 +1164,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159924</v>
+      <c r="A23">
+        <v>159924</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1204,9 +1181,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159925</v>
+      <c r="A24">
+        <v>159925</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1222,9 +1198,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159926</v>
+      <c r="A25">
+        <v>159926</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -1240,9 +1215,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159927</v>
+      <c r="A26">
+        <v>159927</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -1258,9 +1232,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159928</v>
+      <c r="A27">
+        <v>159928</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -1276,9 +1249,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159929</v>
+      <c r="A28">
+        <v>159929</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1294,9 +1266,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159930</v>
+      <c r="A29">
+        <v>159930</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -1312,9 +1283,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159931</v>
+      <c r="A30">
+        <v>159931</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -1330,9 +1300,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159932</v>
+      <c r="A31">
+        <v>159932</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -1348,9 +1317,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159933</v>
+      <c r="A32">
+        <v>159933</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -1366,9 +1334,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159934</v>
+      <c r="A33">
+        <v>159934</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -1384,9 +1351,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159935</v>
+      <c r="A34">
+        <v>159935</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -1402,9 +1368,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159936</v>
+      <c r="A35">
+        <v>159936</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -1420,9 +1385,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159937</v>
+      <c r="A36">
+        <v>159937</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -1438,9 +1402,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159938</v>
+      <c r="A37">
+        <v>159938</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
@@ -1456,9 +1419,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159939</v>
+      <c r="A38">
+        <v>159939</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -1474,9 +1436,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159940</v>
+      <c r="A39">
+        <v>159940</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
@@ -1492,9 +1453,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159941</v>
+      <c r="A40">
+        <v>159941</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -1510,9 +1470,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159942</v>
+      <c r="A41">
+        <v>159942</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
@@ -1528,9 +1487,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159943</v>
+      <c r="A42">
+        <v>159943</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
@@ -1546,9 +1504,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159944</v>
+      <c r="A43">
+        <v>159944</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -1564,9 +1521,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159945</v>
+      <c r="A44">
+        <v>159945</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
@@ -1582,9 +1538,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159946</v>
+      <c r="A45">
+        <v>159946</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -1600,9 +1555,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159948</v>
+      <c r="A46">
+        <v>159948</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
@@ -1618,9 +1572,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159949</v>
+      <c r="A47">
+        <v>159949</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
@@ -1636,9 +1589,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159950</v>
+      <c r="A48">
+        <v>159950</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
@@ -1654,9 +1606,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159951</v>
+      <c r="A49">
+        <v>159951</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
@@ -1672,9 +1623,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159952</v>
+      <c r="A50">
+        <v>159952</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
@@ -1690,9 +1640,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159953</v>
+      <c r="A51">
+        <v>159953</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
@@ -1708,9 +1657,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159954</v>
+      <c r="A52">
+        <v>159954</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
@@ -1726,9 +1674,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159955</v>
+      <c r="A53">
+        <v>159955</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
@@ -1744,9 +1691,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f t="shared" si="0"/>
-        <v>sz159958</v>
+      <c r="A54">
+        <v>159958</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
@@ -1762,9 +1708,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
-        <f>"sh"&amp;F55</f>
-        <v>sh510010</v>
+      <c r="A55">
+        <v>510010</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
@@ -1780,9 +1725,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
-        <f t="shared" ref="A56:A110" si="1">"sh"&amp;F56</f>
-        <v>sh510020</v>
+      <c r="A56">
+        <v>510020</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
@@ -1798,9 +1742,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510030</v>
+      <c r="A57">
+        <v>510030</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
@@ -1816,9 +1759,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510050</v>
+      <c r="A58">
+        <v>510050</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
@@ -1834,9 +1776,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510060</v>
+      <c r="A59">
+        <v>510060</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
@@ -1852,9 +1793,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510070</v>
+      <c r="A60">
+        <v>510070</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
@@ -1870,9 +1810,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510090</v>
+      <c r="A61">
+        <v>510090</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
@@ -1888,9 +1827,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510110</v>
+      <c r="A62">
+        <v>510110</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
@@ -1906,9 +1844,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510120</v>
+      <c r="A63">
+        <v>510120</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
@@ -1924,9 +1861,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510130</v>
+      <c r="A64">
+        <v>510130</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
@@ -1942,9 +1878,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510150</v>
+      <c r="A65">
+        <v>510150</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -1960,9 +1895,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510160</v>
+      <c r="A66">
+        <v>510160</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
@@ -1978,9 +1912,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510170</v>
+      <c r="A67">
+        <v>510170</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
@@ -1996,9 +1929,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510180</v>
+      <c r="A68">
+        <v>510180</v>
       </c>
       <c r="B68" t="s">
         <v>66</v>
@@ -2014,9 +1946,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510190</v>
+      <c r="A69">
+        <v>510190</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
@@ -2032,9 +1963,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510210</v>
+      <c r="A70">
+        <v>510210</v>
       </c>
       <c r="B70" t="s">
         <v>68</v>
@@ -2050,9 +1980,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
-        <f>"sh"&amp;F71</f>
-        <v>sh510220</v>
+      <c r="A71">
+        <v>510220</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
@@ -2068,9 +1997,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510230</v>
+      <c r="A72">
+        <v>510230</v>
       </c>
       <c r="B72" t="s">
         <v>29</v>
@@ -2086,9 +2014,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510260</v>
+      <c r="A73">
+        <v>510260</v>
       </c>
       <c r="B73" t="s">
         <v>70</v>
@@ -2104,9 +2031,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
-        <f>"sh"&amp;F74</f>
-        <v>sh510270</v>
+      <c r="A74">
+        <v>510270</v>
       </c>
       <c r="B74" t="s">
         <v>71</v>
@@ -2122,9 +2048,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510280</v>
+      <c r="A75">
+        <v>510280</v>
       </c>
       <c r="B75" t="s">
         <v>72</v>
@@ -2140,9 +2065,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510290</v>
+      <c r="A76">
+        <v>510290</v>
       </c>
       <c r="B76" t="s">
         <v>73</v>
@@ -2158,9 +2082,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510300</v>
+      <c r="A77">
+        <v>510300</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -2176,9 +2099,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510310</v>
+      <c r="A78">
+        <v>510310</v>
       </c>
       <c r="B78" t="s">
         <v>74</v>
@@ -2194,9 +2116,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510330</v>
+      <c r="A79">
+        <v>510330</v>
       </c>
       <c r="B79" t="s">
         <v>75</v>
@@ -2212,9 +2133,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510360</v>
+      <c r="A80">
+        <v>510360</v>
       </c>
       <c r="B80" t="s">
         <v>76</v>
@@ -2230,9 +2150,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510410</v>
+      <c r="A81">
+        <v>510410</v>
       </c>
       <c r="B81" t="s">
         <v>77</v>
@@ -2248,9 +2167,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510420</v>
+      <c r="A82">
+        <v>510420</v>
       </c>
       <c r="B82" t="s">
         <v>78</v>
@@ -2266,9 +2184,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510430</v>
+      <c r="A83">
+        <v>510430</v>
       </c>
       <c r="B83" t="s">
         <v>79</v>
@@ -2284,9 +2201,8 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510440</v>
+      <c r="A84">
+        <v>510440</v>
       </c>
       <c r="B84" t="s">
         <v>80</v>
@@ -2302,9 +2218,8 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510500</v>
+      <c r="A85">
+        <v>510500</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
@@ -2320,9 +2235,8 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510510</v>
+      <c r="A86">
+        <v>510510</v>
       </c>
       <c r="B86" t="s">
         <v>81</v>
@@ -2338,9 +2252,8 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510520</v>
+      <c r="A87">
+        <v>510520</v>
       </c>
       <c r="B87" t="s">
         <v>82</v>
@@ -2356,9 +2269,8 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510560</v>
+      <c r="A88">
+        <v>510560</v>
       </c>
       <c r="B88" t="s">
         <v>83</v>
@@ -2374,9 +2286,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510580</v>
+      <c r="A89">
+        <v>510580</v>
       </c>
       <c r="B89" t="s">
         <v>84</v>
@@ -2392,9 +2303,8 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510630</v>
+      <c r="A90">
+        <v>510630</v>
       </c>
       <c r="B90" t="s">
         <v>85</v>
@@ -2410,9 +2320,8 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510650</v>
+      <c r="A91">
+        <v>510650</v>
       </c>
       <c r="B91" t="s">
         <v>86</v>
@@ -2428,9 +2337,8 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510660</v>
+      <c r="A92">
+        <v>510660</v>
       </c>
       <c r="B92" t="s">
         <v>87</v>
@@ -2446,9 +2354,8 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510680</v>
+      <c r="A93">
+        <v>510680</v>
       </c>
       <c r="B93" t="s">
         <v>88</v>
@@ -2464,9 +2371,8 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510710</v>
+      <c r="A94">
+        <v>510710</v>
       </c>
       <c r="B94" t="s">
         <v>89</v>
@@ -2482,9 +2388,8 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510810</v>
+      <c r="A95">
+        <v>510810</v>
       </c>
       <c r="B95" t="s">
         <v>90</v>
@@ -2500,9 +2405,8 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510880</v>
+      <c r="A96">
+        <v>510880</v>
       </c>
       <c r="B96" t="s">
         <v>91</v>
@@ -2518,9 +2422,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="str">
-        <f t="shared" si="1"/>
-        <v>sh510900</v>
+      <c r="A97">
+        <v>510900</v>
       </c>
       <c r="B97" t="s">
         <v>51</v>
@@ -2536,9 +2439,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="str">
-        <f t="shared" si="1"/>
-        <v>sh511010</v>
+      <c r="A98">
+        <v>511010</v>
       </c>
       <c r="B98" t="s">
         <v>24</v>
@@ -2554,9 +2456,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="str">
-        <f t="shared" si="1"/>
-        <v>sh511210</v>
+      <c r="A99">
+        <v>511210</v>
       </c>
       <c r="B99" t="s">
         <v>92</v>
@@ -2572,9 +2473,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="str">
-        <f t="shared" si="1"/>
-        <v>sh511220</v>
+      <c r="A100">
+        <v>511220</v>
       </c>
       <c r="B100" t="s">
         <v>93</v>
@@ -2590,9 +2490,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="str">
-        <f t="shared" si="1"/>
-        <v>sh511230</v>
+      <c r="A101">
+        <v>511230</v>
       </c>
       <c r="B101" t="s">
         <v>94</v>
@@ -2608,9 +2507,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="str">
-        <f t="shared" si="1"/>
-        <v>sh511260</v>
+      <c r="A102">
+        <v>511260</v>
       </c>
       <c r="B102" t="s">
         <v>95</v>
@@ -2626,9 +2524,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="str">
-        <f t="shared" si="1"/>
-        <v>sh511650</v>
+      <c r="A103">
+        <v>511650</v>
       </c>
       <c r="B103" t="s">
         <v>96</v>
@@ -2644,9 +2541,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="str">
-        <f t="shared" si="1"/>
-        <v>sh511660</v>
+      <c r="A104">
+        <v>511660</v>
       </c>
       <c r="B104" t="s">
         <v>97</v>
@@ -2662,9 +2558,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="str">
-        <f t="shared" si="1"/>
-        <v>sh511670</v>
+      <c r="A105">
+        <v>511670</v>
       </c>
       <c r="B105" t="s">
         <v>98</v>
@@ -2680,9 +2575,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="str">
-        <f t="shared" si="1"/>
-        <v>sh511770</v>
+      <c r="A106">
+        <v>511770</v>
       </c>
       <c r="B106" t="s">
         <v>99</v>
@@ -2698,9 +2592,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="str">
-        <f t="shared" si="1"/>
-        <v>sh511810</v>
+      <c r="A107">
+        <v>511810</v>
       </c>
       <c r="B107" t="s">
         <v>100</v>
@@ -2716,9 +2609,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="str">
-        <f t="shared" si="1"/>
-        <v>sh511820</v>
+      <c r="A108">
+        <v>511820</v>
       </c>
       <c r="B108" t="s">
         <v>101</v>
@@ -2734,9 +2626,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="str">
-        <f t="shared" si="1"/>
-        <v>sh511850</v>
+      <c r="A109">
+        <v>511850</v>
       </c>
       <c r="B109" t="s">
         <v>102</v>
@@ -2752,9 +2643,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="str">
-        <f t="shared" si="1"/>
-        <v>sh511880</v>
+      <c r="A110">
+        <v>511880</v>
       </c>
       <c r="B110" t="s">
         <v>103</v>
@@ -2770,9 +2660,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="str">
-        <f t="shared" ref="A111:A154" si="2">"sh"&amp;F111</f>
-        <v>sh511930</v>
+      <c r="A111">
+        <v>511930</v>
       </c>
       <c r="B111" t="s">
         <v>104</v>
@@ -2788,9 +2677,8 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="str">
-        <f t="shared" si="2"/>
-        <v>sh511950</v>
+      <c r="A112">
+        <v>511950</v>
       </c>
       <c r="B112" t="s">
         <v>105</v>
@@ -2806,9 +2694,8 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="str">
-        <f t="shared" si="2"/>
-        <v>sh511960</v>
+      <c r="A113">
+        <v>511960</v>
       </c>
       <c r="B113" t="s">
         <v>106</v>
@@ -2824,9 +2711,8 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="str">
-        <f t="shared" si="2"/>
-        <v>sh511980</v>
+      <c r="A114">
+        <v>511980</v>
       </c>
       <c r="B114" t="s">
         <v>107</v>
@@ -2842,9 +2728,8 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="str">
-        <f t="shared" si="2"/>
-        <v>sh511990</v>
+      <c r="A115">
+        <v>511990</v>
       </c>
       <c r="B115" t="s">
         <v>108</v>
@@ -2860,9 +2745,8 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512000</v>
+      <c r="A116">
+        <v>512000</v>
       </c>
       <c r="B116" t="s">
         <v>109</v>
@@ -2878,9 +2762,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512010</v>
+      <c r="A117">
+        <v>512010</v>
       </c>
       <c r="B117" t="s">
         <v>27</v>
@@ -2896,9 +2779,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512070</v>
+      <c r="A118">
+        <v>512070</v>
       </c>
       <c r="B118" t="s">
         <v>110</v>
@@ -2914,9 +2796,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512100</v>
+      <c r="A119">
+        <v>512100</v>
       </c>
       <c r="B119" t="s">
         <v>111</v>
@@ -2932,9 +2813,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512120</v>
+      <c r="A120">
+        <v>512120</v>
       </c>
       <c r="B120" t="s">
         <v>112</v>
@@ -2950,9 +2830,8 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512200</v>
+      <c r="A121">
+        <v>512200</v>
       </c>
       <c r="B121" t="s">
         <v>113</v>
@@ -2968,9 +2847,8 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512210</v>
+      <c r="A122">
+        <v>512210</v>
       </c>
       <c r="B122" t="s">
         <v>114</v>
@@ -2986,9 +2864,8 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512220</v>
+      <c r="A123">
+        <v>512220</v>
       </c>
       <c r="B123" t="s">
         <v>115</v>
@@ -3004,9 +2881,8 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512230</v>
+      <c r="A124">
+        <v>512230</v>
       </c>
       <c r="B124" t="s">
         <v>116</v>
@@ -3022,9 +2898,8 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512300</v>
+      <c r="A125">
+        <v>512300</v>
       </c>
       <c r="B125" t="s">
         <v>117</v>
@@ -3040,9 +2915,8 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512310</v>
+      <c r="A126">
+        <v>512310</v>
       </c>
       <c r="B126" t="s">
         <v>118</v>
@@ -3058,9 +2932,8 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512330</v>
+      <c r="A127">
+        <v>512330</v>
       </c>
       <c r="B127" t="s">
         <v>119</v>
@@ -3076,9 +2949,8 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512340</v>
+      <c r="A128">
+        <v>512340</v>
       </c>
       <c r="B128" t="s">
         <v>120</v>
@@ -3094,9 +2966,8 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512400</v>
+      <c r="A129">
+        <v>512400</v>
       </c>
       <c r="B129" t="s">
         <v>121</v>
@@ -3112,9 +2983,8 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512500</v>
+      <c r="A130">
+        <v>512500</v>
       </c>
       <c r="B130" t="s">
         <v>122</v>
@@ -3130,9 +3000,8 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512510</v>
+      <c r="A131">
+        <v>512510</v>
       </c>
       <c r="B131" t="s">
         <v>123</v>
@@ -3148,9 +3017,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512550</v>
+      <c r="A132">
+        <v>512550</v>
       </c>
       <c r="B132" t="s">
         <v>124</v>
@@ -3166,9 +3034,8 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512560</v>
+      <c r="A133">
+        <v>512560</v>
       </c>
       <c r="B133" t="s">
         <v>125</v>
@@ -3184,9 +3051,8 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512570</v>
+      <c r="A134">
+        <v>512570</v>
       </c>
       <c r="B134" t="s">
         <v>126</v>
@@ -3202,9 +3068,8 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512580</v>
+      <c r="A135">
+        <v>512580</v>
       </c>
       <c r="B135" t="s">
         <v>127</v>
@@ -3220,9 +3085,8 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512600</v>
+      <c r="A136">
+        <v>512600</v>
       </c>
       <c r="B136" t="s">
         <v>128</v>
@@ -3238,9 +3102,8 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512610</v>
+      <c r="A137">
+        <v>512610</v>
       </c>
       <c r="B137" t="s">
         <v>129</v>
@@ -3256,9 +3119,8 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512640</v>
+      <c r="A138">
+        <v>512640</v>
       </c>
       <c r="B138" t="s">
         <v>130</v>
@@ -3274,9 +3136,8 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512660</v>
+      <c r="A139">
+        <v>512660</v>
       </c>
       <c r="B139" t="s">
         <v>131</v>
@@ -3292,9 +3153,8 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512680</v>
+      <c r="A140">
+        <v>512680</v>
       </c>
       <c r="B140" t="s">
         <v>132</v>
@@ -3310,9 +3170,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512700</v>
+      <c r="A141">
+        <v>512700</v>
       </c>
       <c r="B141" t="s">
         <v>133</v>
@@ -3328,9 +3187,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512800</v>
+      <c r="A142">
+        <v>512800</v>
       </c>
       <c r="B142" t="s">
         <v>134</v>
@@ -3346,9 +3204,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512810</v>
+      <c r="A143">
+        <v>512810</v>
       </c>
       <c r="B143" t="s">
         <v>135</v>
@@ -3364,9 +3221,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512880</v>
+      <c r="A144">
+        <v>512880</v>
       </c>
       <c r="B144" t="s">
         <v>136</v>
@@ -3382,9 +3238,8 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512900</v>
+      <c r="A145">
+        <v>512900</v>
       </c>
       <c r="B145" t="s">
         <v>137</v>
@@ -3400,9 +3255,8 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="str">
-        <f t="shared" si="2"/>
-        <v>sh512990</v>
+      <c r="A146">
+        <v>512990</v>
       </c>
       <c r="B146" t="s">
         <v>138</v>
@@ -3418,9 +3272,8 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="str">
-        <f t="shared" si="2"/>
-        <v>sh513030</v>
+      <c r="A147">
+        <v>513030</v>
       </c>
       <c r="B147" t="s">
         <v>139</v>
@@ -3436,9 +3289,8 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="str">
-        <f t="shared" si="2"/>
-        <v>sh513050</v>
+      <c r="A148">
+        <v>513050</v>
       </c>
       <c r="B148" t="s">
         <v>140</v>
@@ -3454,9 +3306,8 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="str">
-        <f t="shared" si="2"/>
-        <v>sh513100</v>
+      <c r="A149">
+        <v>513100</v>
       </c>
       <c r="B149" t="s">
         <v>141</v>
@@ -3472,9 +3323,8 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="str">
-        <f t="shared" si="2"/>
-        <v>sh513500</v>
+      <c r="A150">
+        <v>513500</v>
       </c>
       <c r="B150" t="s">
         <v>142</v>
@@ -3490,9 +3340,8 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="str">
-        <f t="shared" si="2"/>
-        <v>sh513600</v>
+      <c r="A151">
+        <v>513600</v>
       </c>
       <c r="B151" t="s">
         <v>143</v>
@@ -3508,9 +3357,8 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="str">
-        <f t="shared" si="2"/>
-        <v>sh513660</v>
+      <c r="A152">
+        <v>513660</v>
       </c>
       <c r="B152" t="s">
         <v>144</v>
@@ -3526,9 +3374,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="str">
-        <f t="shared" si="2"/>
-        <v>sh518800</v>
+      <c r="A153">
+        <v>518800</v>
       </c>
       <c r="B153" t="s">
         <v>145</v>
@@ -3544,9 +3391,8 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="str">
-        <f t="shared" si="2"/>
-        <v>sh518880</v>
+      <c r="A154">
+        <v>518880</v>
       </c>
       <c r="B154" t="s">
         <v>32</v>
